--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I374"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13468,6 +13468,41 @@
         <v>1903900</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F375" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G375" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H375" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1884600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I375"/>
+  <dimension ref="A1:I376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13503,6 +13503,41 @@
         <v>1884600</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F376" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G376" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I376" t="n">
+        <v>6136900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I376"/>
+  <dimension ref="A1:I377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13538,6 +13538,41 @@
         <v>6136900</v>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F377" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G377" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3013200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13573,6 +13573,41 @@
         <v>3013200</v>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F378" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G378" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H378" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1820700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13608,6 +13608,41 @@
         <v>1820700</v>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F379" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G379" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I379" t="n">
+        <v>5293400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13643,6 +13643,41 @@
         <v>5293400</v>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G380" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H380" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I380" t="n">
+        <v>3557000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13678,6 +13678,41 @@
         <v>3557000</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F381" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H381" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1762400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13713,6 +13713,41 @@
         <v>1762400</v>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F382" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G382" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H382" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1676100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13748,6 +13748,41 @@
         <v>1676100</v>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F383" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G383" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H383" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I383" t="n">
+        <v>4148800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13783,6 +13783,41 @@
         <v>4148800</v>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F384" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H384" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I384" t="n">
+        <v>4708300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13818,6 +13818,41 @@
         <v>4708300</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F385" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H385" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I385" t="n">
+        <v>6610500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I385"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13853,6 +13853,41 @@
         <v>6610500</v>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F386" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H386" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I386" t="n">
+        <v>8249700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13888,6 +13888,76 @@
         <v>8249700</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F387" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G387" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H387" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I387" t="n">
+        <v>3799900</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G388" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H388" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I388" t="n">
+        <v>10070100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I388"/>
+  <dimension ref="A1:I390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13958,6 +13958,76 @@
         <v>10070100</v>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F389" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I389" t="n">
+        <v>6224600</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F390" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H390" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I390" t="n">
+        <v>3849400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14028,6 +14028,41 @@
         <v>3849400</v>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H391" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2699200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14063,6 +14063,41 @@
         <v>2699200</v>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H392" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I392" t="n">
+        <v>2707800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I392"/>
+  <dimension ref="A1:I393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14098,6 +14098,41 @@
         <v>2707800</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F393" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H393" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I393" t="n">
+        <v>3086700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I393"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14133,6 +14133,41 @@
         <v>3086700</v>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F394" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G394" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H394" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I394" t="n">
+        <v>7495900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14168,6 +14168,76 @@
         <v>7495900</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F395" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H395" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I395" t="n">
+        <v>5861900</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F396" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H396" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I396" t="n">
+        <v>4672500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I396"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14238,6 +14238,41 @@
         <v>4672500</v>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F397" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H397" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3488300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14273,6 +14273,41 @@
         <v>3488300</v>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I398" t="n">
+        <v>7400300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11755,11 +11755,11 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11773,28 +11773,28 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>1.77</v>
+        <v>1.044</v>
       </c>
       <c r="F326" t="n">
-        <v>1.78</v>
+        <v>1.056</v>
       </c>
       <c r="G326" t="n">
-        <v>1.74</v>
+        <v>1.032</v>
       </c>
       <c r="H326" t="n">
-        <v>1.75</v>
+        <v>1.032</v>
       </c>
       <c r="I326" t="n">
-        <v>1078000</v>
+        <v>1407500</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11808,28 +11808,28 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>1.78</v>
+        <v>1.038</v>
       </c>
       <c r="F327" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="G327" t="n">
-        <v>1.77</v>
+        <v>1.038</v>
       </c>
       <c r="H327" t="n">
-        <v>1.82</v>
+        <v>1.044</v>
       </c>
       <c r="I327" t="n">
-        <v>1825000</v>
+        <v>1188667</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11843,28 +11843,28 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.85</v>
+        <v>1.044</v>
       </c>
       <c r="F328" t="n">
-        <v>1.89</v>
+        <v>1.056</v>
       </c>
       <c r="G328" t="n">
-        <v>1.84</v>
+        <v>1.038</v>
       </c>
       <c r="H328" t="n">
-        <v>1.85</v>
+        <v>1.056</v>
       </c>
       <c r="I328" t="n">
-        <v>2644200</v>
+        <v>1536333</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11878,28 +11878,28 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1.86</v>
+        <v>1.056</v>
       </c>
       <c r="F329" t="n">
-        <v>1.87</v>
+        <v>1.086</v>
       </c>
       <c r="G329" t="n">
-        <v>1.82</v>
+        <v>1.056</v>
       </c>
       <c r="H329" t="n">
-        <v>1.83</v>
+        <v>1.056</v>
       </c>
       <c r="I329" t="n">
-        <v>1876100</v>
+        <v>4634500</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11913,28 +11913,28 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1.83</v>
+        <v>1.068</v>
       </c>
       <c r="F330" t="n">
-        <v>1.94</v>
+        <v>1.104</v>
       </c>
       <c r="G330" t="n">
-        <v>1.83</v>
+        <v>1.068</v>
       </c>
       <c r="H330" t="n">
-        <v>1.94</v>
+        <v>1.086</v>
       </c>
       <c r="I330" t="n">
-        <v>3320500</v>
+        <v>8446667</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11948,28 +11948,28 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1.94</v>
+        <v>1.098</v>
       </c>
       <c r="F331" t="n">
-        <v>2.09</v>
+        <v>1.104</v>
       </c>
       <c r="G331" t="n">
-        <v>1.94</v>
+        <v>1.056</v>
       </c>
       <c r="H331" t="n">
-        <v>2.08</v>
+        <v>1.056</v>
       </c>
       <c r="I331" t="n">
-        <v>7606500</v>
+        <v>3932833</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11983,28 +11983,28 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.09</v>
+        <v>1.062</v>
       </c>
       <c r="F332" t="n">
-        <v>2.3</v>
+        <v>1.068</v>
       </c>
       <c r="G332" t="n">
-        <v>2.09</v>
+        <v>1.038</v>
       </c>
       <c r="H332" t="n">
-        <v>2.1</v>
+        <v>1.056</v>
       </c>
       <c r="I332" t="n">
-        <v>11265200</v>
+        <v>2619833</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -12018,28 +12018,28 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>2.1</v>
+        <v>1.056</v>
       </c>
       <c r="F333" t="n">
-        <v>2.17</v>
+        <v>1.068</v>
       </c>
       <c r="G333" t="n">
-        <v>2.02</v>
+        <v>1.056</v>
       </c>
       <c r="H333" t="n">
-        <v>2.05</v>
+        <v>1.056</v>
       </c>
       <c r="I333" t="n">
-        <v>4646000</v>
+        <v>1642000</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12053,28 +12053,28 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2.05</v>
+        <v>1.068</v>
       </c>
       <c r="F334" t="n">
-        <v>2.07</v>
+        <v>1.074</v>
       </c>
       <c r="G334" t="n">
-        <v>2.04</v>
+        <v>1.056</v>
       </c>
       <c r="H334" t="n">
-        <v>2.05</v>
+        <v>1.062</v>
       </c>
       <c r="I334" t="n">
-        <v>1466900</v>
+        <v>1326333</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -12088,28 +12088,28 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="F335" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="G335" t="n">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="H335" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="I335" t="n">
-        <v>2445400</v>
+        <v>1078000</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12123,28 +12123,28 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="F336" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="G336" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="H336" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="I336" t="n">
-        <v>2812400</v>
+        <v>1825000</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -12158,28 +12158,28 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="F337" t="n">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="G337" t="n">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="H337" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="I337" t="n">
-        <v>3017300</v>
+        <v>2644200</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12193,28 +12193,28 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="F338" t="n">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="G338" t="n">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="H338" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="I338" t="n">
-        <v>4846200</v>
+        <v>1876100</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -12228,28 +12228,28 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="F339" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="G339" t="n">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="H339" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="I339" t="n">
-        <v>3176600</v>
+        <v>3320500</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -12263,28 +12263,28 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="F340" t="n">
-        <v>2.16</v>
+        <v>2.09</v>
       </c>
       <c r="G340" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H340" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="I340" t="n">
-        <v>2787800</v>
+        <v>7606500</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -12298,28 +12298,28 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>1.3</v>
+        <v>2.09</v>
       </c>
       <c r="F341" t="n">
-        <v>1.39</v>
+        <v>2.3</v>
       </c>
       <c r="G341" t="n">
-        <v>1.28</v>
+        <v>2.09</v>
       </c>
       <c r="H341" t="n">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="I341" t="n">
-        <v>9856600</v>
+        <v>11265200</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -12333,28 +12333,28 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="F342" t="n">
-        <v>1.32</v>
+        <v>2.17</v>
       </c>
       <c r="G342" t="n">
-        <v>1.29</v>
+        <v>2.02</v>
       </c>
       <c r="H342" t="n">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="I342" t="n">
-        <v>3015300</v>
+        <v>4646000</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12368,28 +12368,28 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1.31</v>
+        <v>2.05</v>
       </c>
       <c r="F343" t="n">
-        <v>1.32</v>
+        <v>2.07</v>
       </c>
       <c r="G343" t="n">
-        <v>1.27</v>
+        <v>2.04</v>
       </c>
       <c r="H343" t="n">
-        <v>1.28</v>
+        <v>2.05</v>
       </c>
       <c r="I343" t="n">
-        <v>2875000</v>
+        <v>1466900</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12403,28 +12403,28 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1.28</v>
+        <v>2.05</v>
       </c>
       <c r="F344" t="n">
-        <v>1.28</v>
+        <v>2.05</v>
       </c>
       <c r="G344" t="n">
-        <v>1.25</v>
+        <v>2.01</v>
       </c>
       <c r="H344" t="n">
-        <v>1.27</v>
+        <v>2.01</v>
       </c>
       <c r="I344" t="n">
-        <v>2682000</v>
+        <v>2445400</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12438,28 +12438,28 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>1.27</v>
+        <v>2.03</v>
       </c>
       <c r="F345" t="n">
-        <v>1.32</v>
+        <v>2.09</v>
       </c>
       <c r="G345" t="n">
-        <v>1.26</v>
+        <v>2.02</v>
       </c>
       <c r="H345" t="n">
-        <v>1.32</v>
+        <v>2.05</v>
       </c>
       <c r="I345" t="n">
-        <v>4149900</v>
+        <v>2812400</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12473,28 +12473,28 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1.34</v>
+        <v>2.06</v>
       </c>
       <c r="F346" t="n">
-        <v>1.42</v>
+        <v>2.09</v>
       </c>
       <c r="G346" t="n">
-        <v>1.32</v>
+        <v>2.05</v>
       </c>
       <c r="H346" t="n">
-        <v>1.41</v>
+        <v>2.06</v>
       </c>
       <c r="I346" t="n">
-        <v>10231900</v>
+        <v>3017300</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12508,28 +12508,28 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1.41</v>
+        <v>2.07</v>
       </c>
       <c r="F347" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
       <c r="G347" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="H347" t="n">
-        <v>1.39</v>
+        <v>2.14</v>
       </c>
       <c r="I347" t="n">
-        <v>4946700</v>
+        <v>4846200</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12543,28 +12543,28 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="F348" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="G348" t="n">
-        <v>1.4</v>
+        <v>2.11</v>
       </c>
       <c r="H348" t="n">
-        <v>1.52</v>
+        <v>2.14</v>
       </c>
       <c r="I348" t="n">
-        <v>9985500</v>
+        <v>3176600</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12578,28 +12578,28 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1.52</v>
+        <v>2.14</v>
       </c>
       <c r="F349" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="G349" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="H349" t="n">
-        <v>1.49</v>
+        <v>2.11</v>
       </c>
       <c r="I349" t="n">
-        <v>4661000</v>
+        <v>2787800</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12613,28 +12613,28 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="F350" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="G350" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="H350" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="I350" t="n">
-        <v>6837400</v>
+        <v>9856600</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12648,28 +12648,28 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="F351" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="G351" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="H351" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="I351" t="n">
-        <v>4549700</v>
+        <v>3015300</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12683,28 +12683,28 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="F352" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="G352" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="H352" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="I352" t="n">
-        <v>10002800</v>
+        <v>2875000</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12718,28 +12718,28 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="F353" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="G353" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="H353" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="I353" t="n">
-        <v>8538900</v>
+        <v>2682000</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12753,28 +12753,28 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="F354" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="G354" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="H354" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="I354" t="n">
-        <v>3388600</v>
+        <v>4149900</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12788,28 +12788,28 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="F355" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G355" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="H355" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="I355" t="n">
-        <v>3260700</v>
+        <v>10231900</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12823,28 +12823,28 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="F356" t="n">
         <v>1.42</v>
       </c>
       <c r="G356" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H356" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I356" t="n">
-        <v>7460700</v>
+        <v>4946700</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12858,28 +12858,28 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="F357" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G357" t="n">
         <v>1.4</v>
       </c>
-      <c r="G357" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H357" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="I357" t="n">
-        <v>4844600</v>
+        <v>9985500</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12893,28 +12893,28 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="F358" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="G358" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="H358" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="I358" t="n">
-        <v>3496900</v>
+        <v>4661000</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12928,28 +12928,28 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="F359" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="G359" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="H359" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="I359" t="n">
-        <v>5408400</v>
+        <v>6837400</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12963,28 +12963,28 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="F360" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="G360" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H360" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="I360" t="n">
-        <v>4448800</v>
+        <v>4549700</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12998,28 +12998,28 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="F361" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G361" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="H361" t="n">
         <v>1.36</v>
       </c>
       <c r="I361" t="n">
-        <v>3251900</v>
+        <v>10002800</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -13033,28 +13033,28 @@
         </is>
       </c>
       <c r="E362" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G362" t="n">
         <v>1.36</v>
       </c>
-      <c r="F362" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G362" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H362" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="I362" t="n">
-        <v>10135900</v>
+        <v>8538900</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -13068,28 +13068,28 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="F363" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G363" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="H363" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="I363" t="n">
-        <v>4559400</v>
+        <v>3388600</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -13103,28 +13103,28 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="F364" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="G364" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="H364" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="I364" t="n">
-        <v>1983200</v>
+        <v>3260700</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -13138,28 +13138,28 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="F365" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G365" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H365" t="n">
         <v>1.37</v>
       </c>
       <c r="I365" t="n">
-        <v>5426200</v>
+        <v>7460700</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -13173,28 +13173,28 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="F366" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="G366" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H366" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="I366" t="n">
-        <v>3703000</v>
+        <v>4844600</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -13208,28 +13208,28 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="F367" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="G367" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H367" t="n">
         <v>1.37</v>
       </c>
       <c r="I367" t="n">
-        <v>2440600</v>
+        <v>3496900</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -13246,25 +13246,25 @@
         <v>1.37</v>
       </c>
       <c r="F368" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G368" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="H368" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="I368" t="n">
-        <v>8728700</v>
+        <v>5408400</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -13278,28 +13278,28 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="F369" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="G369" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="H369" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="I369" t="n">
-        <v>10404900</v>
+        <v>4448800</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -13313,28 +13313,28 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="F370" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G370" t="n">
         <v>1.36</v>
       </c>
-      <c r="G370" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H370" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="I370" t="n">
-        <v>3534700</v>
+        <v>3251900</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -13348,28 +13348,28 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="F371" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="G371" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="H371" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="I371" t="n">
-        <v>2221900</v>
+        <v>10135900</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13383,28 +13383,28 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="F372" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="G372" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="H372" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="I372" t="n">
-        <v>5213300</v>
+        <v>4559400</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13418,28 +13418,28 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="F373" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="G373" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="H373" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="I373" t="n">
-        <v>2414900</v>
+        <v>1983200</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13453,28 +13453,28 @@
         </is>
       </c>
       <c r="E374" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F374" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G374" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H374" t="n">
         <v>1.37</v>
       </c>
-      <c r="F374" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G374" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H374" t="n">
-        <v>1.36</v>
-      </c>
       <c r="I374" t="n">
-        <v>1903900</v>
+        <v>5426200</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13488,28 +13488,28 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="F375" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="G375" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H375" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="I375" t="n">
-        <v>1884600</v>
+        <v>3703000</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13523,28 +13523,28 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="F376" t="n">
         <v>1.41</v>
       </c>
       <c r="G376" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H376" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I376" t="n">
-        <v>6136900</v>
+        <v>2440600</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13558,28 +13558,28 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F377" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G377" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="H377" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="I377" t="n">
-        <v>3013200</v>
+        <v>8728700</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13593,28 +13593,28 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="F378" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="G378" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="H378" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="I378" t="n">
-        <v>1820700</v>
+        <v>10404900</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13628,28 +13628,28 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="F379" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="G379" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="H379" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="I379" t="n">
-        <v>5293400</v>
+        <v>3534700</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13663,28 +13663,28 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="F380" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="G380" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="H380" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="I380" t="n">
-        <v>3557000</v>
+        <v>2221900</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13698,28 +13698,28 @@
         </is>
       </c>
       <c r="E381" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F381" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H381" t="n">
         <v>1.39</v>
       </c>
-      <c r="F381" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G381" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H381" t="n">
-        <v>1.38</v>
-      </c>
       <c r="I381" t="n">
-        <v>1762400</v>
+        <v>5213300</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13736,25 +13736,25 @@
         <v>1.4</v>
       </c>
       <c r="F382" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G382" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H382" t="n">
         <v>1.38</v>
       </c>
       <c r="I382" t="n">
-        <v>1676100</v>
+        <v>2414900</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13768,28 +13768,28 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="F383" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="G383" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="H383" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="I383" t="n">
-        <v>4148800</v>
+        <v>1903900</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13803,28 +13803,28 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="F384" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G384" t="n">
         <v>1.36</v>
       </c>
-      <c r="G384" t="n">
-        <v>1.31</v>
-      </c>
       <c r="H384" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="I384" t="n">
-        <v>4708300</v>
+        <v>1884600</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13838,28 +13838,28 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F385" t="n">
         <v>1.41</v>
       </c>
       <c r="G385" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="H385" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I385" t="n">
-        <v>6610500</v>
+        <v>6136900</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13873,28 +13873,28 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="F386" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G386" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H386" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="I386" t="n">
-        <v>8249700</v>
+        <v>3013200</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13908,28 +13908,28 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="F387" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G387" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="H387" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="I387" t="n">
-        <v>3799900</v>
+        <v>1820700</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13943,28 +13943,28 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F388" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="G388" t="n">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="H388" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="I388" t="n">
-        <v>10070100</v>
+        <v>5293400</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13978,28 +13978,28 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="F389" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="G389" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="H389" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="I389" t="n">
-        <v>6224600</v>
+        <v>3557000</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14013,28 +14013,28 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="F390" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="G390" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="H390" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="I390" t="n">
-        <v>3849400</v>
+        <v>1762400</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14048,28 +14048,28 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="F391" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="G391" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="H391" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="I391" t="n">
-        <v>2699200</v>
+        <v>1676100</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14083,28 +14083,28 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="F392" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="G392" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="H392" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="I392" t="n">
-        <v>2707800</v>
+        <v>4148800</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14118,28 +14118,28 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="F393" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="G393" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="H393" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="I393" t="n">
-        <v>3086700</v>
+        <v>4708300</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -14153,28 +14153,28 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="F394" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="G394" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="H394" t="n">
-        <v>1.08</v>
+        <v>1.39</v>
       </c>
       <c r="I394" t="n">
-        <v>7495900</v>
+        <v>6610500</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -14188,28 +14188,28 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="F395" t="n">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="G395" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="H395" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="I395" t="n">
-        <v>5861900</v>
+        <v>8249700</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -14223,28 +14223,28 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="F396" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="G396" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="H396" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="I396" t="n">
-        <v>4672500</v>
+        <v>3799900</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14258,53 +14258,368 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="F397" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="G397" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="H397" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="I397" t="n">
-        <v>3488300</v>
+        <v>10070100</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I398" t="n">
+        <v>6224600</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H399" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I399" t="n">
+        <v>3849400</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F400" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H400" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2699200</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H401" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2707800</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F402" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H402" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I402" t="n">
+        <v>3086700</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F403" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H403" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I403" t="n">
+        <v>7495900</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F404" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H404" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I404" t="n">
+        <v>5861900</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F405" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H405" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I405" t="n">
+        <v>4672500</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F406" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G406" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>3488300</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B398" t="inlineStr">
+      <c r="B407" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>0200</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>REVENUE</t>
-        </is>
-      </c>
-      <c r="E398" t="n">
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
         <v>1.03</v>
       </c>
-      <c r="F398" t="n">
+      <c r="F407" t="n">
         <v>1.08</v>
       </c>
-      <c r="G398" t="n">
+      <c r="G407" t="n">
         <v>0.98</v>
       </c>
-      <c r="H398" t="n">
+      <c r="H407" t="n">
         <v>1.04</v>
       </c>
-      <c r="I398" t="n">
+      <c r="I407" t="n">
         <v>7400300</v>
       </c>
     </row>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14623,6 +14623,41 @@
         <v>7400300</v>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I408" t="n">
+        <v>9392200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I408"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14658,6 +14658,41 @@
         <v>9392200</v>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I409" t="n">
+        <v>7695200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14693,6 +14693,41 @@
         <v>7695200</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I410" t="n">
+        <v>4323600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14728,6 +14728,41 @@
         <v>4323600</v>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I411" t="n">
+        <v>6133400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14763,6 +14763,41 @@
         <v>6133400</v>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I412" t="n">
+        <v>10410600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14798,6 +14798,41 @@
         <v>10410600</v>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I413" t="n">
+        <v>5125400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14833,6 +14833,41 @@
         <v>5125400</v>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I414" t="n">
+        <v>5572400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I414"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14868,6 +14868,41 @@
         <v>5572400</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F415" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I415" t="n">
+        <v>14757300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14903,6 +14903,41 @@
         <v>14757300</v>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I416" t="n">
+        <v>5398100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14938,6 +14938,41 @@
         <v>5398100</v>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F417" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I417" t="n">
+        <v>13923100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14973,6 +14973,41 @@
         <v>13923100</v>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I418" t="n">
+        <v>4026600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15008,6 +15008,41 @@
         <v>4026600</v>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F419" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H419" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I419" t="n">
+        <v>12009200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15043,6 +15043,41 @@
         <v>12009200</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F420" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I420" t="n">
+        <v>11922200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15078,6 +15078,41 @@
         <v>11922200</v>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F421" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I421" t="n">
+        <v>4944600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15113,6 +15113,41 @@
         <v>4944600</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F422" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G422" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H422" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3105900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15148,6 +15148,41 @@
         <v>3105900</v>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F423" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G423" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H423" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I423" t="n">
+        <v>6657400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15183,6 +15183,41 @@
         <v>6657400</v>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F424" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G424" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H424" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I424" t="n">
+        <v>8596500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I424"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15218,6 +15218,41 @@
         <v>8596500</v>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F425" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G425" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H425" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3696200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15253,6 +15253,41 @@
         <v>3696200</v>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H426" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I426" t="n">
+        <v>1628900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15288,6 +15288,41 @@
         <v>1628900</v>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F427" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G427" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I427" t="n">
+        <v>2757800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15323,6 +15323,41 @@
         <v>2757800</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F428" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I428" t="n">
+        <v>1568500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15358,6 +15358,41 @@
         <v>1568500</v>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F429" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3622300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15393,6 +15393,41 @@
         <v>3622300</v>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F430" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G430" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H430" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2568500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15428,6 +15428,41 @@
         <v>2568500</v>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G431" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I431" t="n">
+        <v>1988800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15463,6 +15463,41 @@
         <v>1988800</v>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F432" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G432" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I432" t="n">
+        <v>8497800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15498,6 +15498,76 @@
         <v>8497800</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G433" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I433" t="n">
+        <v>4313200</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F434" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3080600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I434"/>
+  <dimension ref="A1:I435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15568,6 +15568,41 @@
         <v>3080600</v>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F435" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I435" t="n">
+        <v>3232200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I435"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15603,6 +15603,111 @@
         <v>3232200</v>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F436" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G436" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I436" t="n">
+        <v>3570600</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G437" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H437" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I437" t="n">
+        <v>1539600</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F438" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G438" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3213400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15708,6 +15708,41 @@
         <v>3213400</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F439" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G439" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I439" t="n">
+        <v>2027100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I439"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15743,6 +15743,41 @@
         <v>2027100</v>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F440" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G440" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I440" t="n">
+        <v>6456400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0200.xlsx
+++ b/data/0200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I440"/>
+  <dimension ref="A1:I443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15778,6 +15778,111 @@
         <v>6456400</v>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G441" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3469300</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F442" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G442" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3229500</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G443" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H443" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3267800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
